--- a/biology/Neurosciences/Alfred_Vulpian/Alfred_Vulpian.xlsx
+++ b/biology/Neurosciences/Alfred_Vulpian/Alfred_Vulpian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edmé Félix Alfred Vulpian, né le 5 janvier 1826 à Paris, ville où il est mort dans le 5e arrondissement le 18 mai 1887[1], est un physiologiste et neurologue français, médecin des hôpitaux et professeur d'anatomie pathologique et de pathologie expérimentale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edmé Félix Alfred Vulpian, né le 5 janvier 1826 à Paris, ville où il est mort dans le 5e arrondissement le 18 mai 1887, est un physiologiste et neurologue français, médecin des hôpitaux et professeur d'anatomie pathologique et de pathologie expérimentale.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petit-fils de l'avocat Jean-Baptiste Vulpian (dernier bailli de Meudon), fils de l'avocat/auteur dramatique, Alphonse Vulpian, Alfred Vulpian est l'élève de Pierre Flourens. En 1856, il met en évidence une substance produite par l'extrait de glandes surrénales nommée plus tard adrénaline[2] (isolée en 1901 par Takamine Jōkichi et purifiée par Thomas Aldrich) et publie ses « Recherches expérimentales sur la physiologie et la pathologie des capsules surrénales » dans le Compte Rendu de l'Académie des sciences.
-En 1859, il a le premier l'idée de cultiver des tissus animaux[3] ; il isole des fragments de queue de têtard et essaye de les cultiver dans l'eau. Bien qu'il obtienne la survie des cellules, elles ne se multiplient pas, et cette tentative n'apporte guère d'informations, si ce n'est de démontrer la capacité de survie des cellules en dehors de l'organisme.
-En 1864, il remarque que les patients atteints d'un ictus apoplectique ont la tête et les yeux tournés du côté opposé à leur hémiplégie, c’est-à-dire du côté de leur lésion cérébrale : ce sera le sujet de la thèse de son élève Jean-Louis Prévost[4]. Ce signe classique est connu depuis lors sous le nom de loi de Prévost-Vulpian.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit-fils de l'avocat Jean-Baptiste Vulpian (dernier bailli de Meudon), fils de l'avocat/auteur dramatique, Alphonse Vulpian, Alfred Vulpian est l'élève de Pierre Flourens. En 1856, il met en évidence une substance produite par l'extrait de glandes surrénales nommée plus tard adrénaline (isolée en 1901 par Takamine Jōkichi et purifiée par Thomas Aldrich) et publie ses « Recherches expérimentales sur la physiologie et la pathologie des capsules surrénales » dans le Compte Rendu de l'Académie des sciences.
+En 1859, il a le premier l'idée de cultiver des tissus animaux ; il isole des fragments de queue de têtard et essaye de les cultiver dans l'eau. Bien qu'il obtienne la survie des cellules, elles ne se multiplient pas, et cette tentative n'apporte guère d'informations, si ce n'est de démontrer la capacité de survie des cellules en dehors de l'organisme.
+En 1864, il remarque que les patients atteints d'un ictus apoplectique ont la tête et les yeux tournés du côté opposé à leur hémiplégie, c’est-à-dire du côté de leur lésion cérébrale : ce sera le sujet de la thèse de son élève Jean-Louis Prévost. Ce signe classique est connu depuis lors sous le nom de loi de Prévost-Vulpian.
 Avec son ami Charcot, il décrit la sclérose en plaques. Leurs travaux sur cette maladie sont publiés en 1868 dans la Gazette des Hôpitaux. « Appelé à prendre possession de la chaire de pathologie expérimentale et comparée, lorsqu'elle est devenue vacante par la suite de la démission de M. Brown-Séquard, j'ai choisi, pour sujet de mon premier cours (mars-juillet 1873), la physiologie et la pathologie de l'appareil nerveux vaso-moteur » écrit Vulpian dans sa préface.
 Toujours avec Charcot à la Salpêtrière, il se consacre à l'étude de la physiologie et de la pathologie du système nerveux. Il étudie la dégénérescence et la régénération du système nerveux ainsi que l'effet des drogues sur celui-ci. Il apporte un nouvel éclairage sur la neuropathologie. Élu membre de l'Académie des sciences en 1876, il ouvre de nombreux laboratoires.
 En 1885 avec Jacques-Joseph Grancher (1843-1907), il réussit à convaincre Louis Pasteur[réf. souhaitée] de faire la première vaccination contre la rage sur le jeune Joseph Meister, qui a été mordu par un chien enragé.
@@ -547,7 +561,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Essai sur l'origine de plusieurs paires des nerfs crâniens (3e, 4e, 5e, 6e, 7e, 8e, 9e et 10e), [Thèse pour le Doctorat de médecine de Paris, présentée et soutenue le 21 juillet 1853, n° 170], Paris, Rignoux, 1853,Texte intégral.
 « Note sur quelques réactions propres à la substance des capsules surrénales » Comptes rendus de l'Académie des Sciences, Paris, 1856, no 43, p. 663-665.
@@ -601,7 +617,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>phénomène de Vulpian-Heidenhain-Sherrington
 syndrome de Vulpian-Bernhardt
@@ -635,7 +653,9 @@
           <t>Titres, prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Agrégé de l'École de médecine.
 Médecin à la Salpêtrière puis à la Pitié.
